--- a/Results/Notebook 2 Example 1/Scores/problem_2_instance2_scores.xlsx
+++ b/Results/Notebook 2 Example 1/Scores/problem_2_instance2_scores.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02082212546802237</v>
+        <v>0.02105197657393327</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1831027005573673</v>
+        <v>0.1677375843530966</v>
       </c>
     </row>
     <row r="3">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.06089882822649604</v>
+        <v>0.07045792989910823</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2484112199158908</v>
+        <v>0.2598345363540792</v>
       </c>
     </row>
     <row r="4">
@@ -483,10 +483,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.88437353071943</v>
+        <v>0.8609289576919302</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4247037264120266</v>
+        <v>0.4307109771549437</v>
       </c>
     </row>
     <row r="5">
@@ -496,10 +496,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9819727392655158</v>
+        <v>0.9924723883476512</v>
       </c>
       <c r="C5" t="n">
-        <v>0.370568552629746</v>
+        <v>0.3599945774992724</v>
       </c>
     </row>
     <row r="6">
@@ -509,10 +509,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9865584222299085</v>
+        <v>0.9720944538999806</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7810612737681778</v>
+        <v>0.7959176720437561</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9517567868886497</v>
+        <v>0.9340063778145274</v>
       </c>
       <c r="C7" t="n">
-        <v>0.28589517964913</v>
+        <v>0.2882401967297296</v>
       </c>
     </row>
     <row r="8">
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.007981419563293457</v>
+        <v>0.01279452443122864</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1747126579284668</v>
+        <v>0.1824441146850586</v>
       </c>
     </row>
   </sheetData>
